--- a/docs/RMSE_SVM_git.xlsx
+++ b/docs/RMSE_SVM_git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3c9903280de0ad7/Doctorado/publicaciones/02.Nosie_filters/Tablas para resultados/Tablas Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{31A7AC28-C245-B447-A724-0FACE1D806BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF40B637-45AA-2243-B7C2-54904D8DB5D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245A837-8CAD-4F49-B687-72A1C30C552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3320" yWindow="-16380" windowWidth="34540" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
+    <workbookView xWindow="-4080" yWindow="-17600" windowWidth="34540" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
   <sheets>
     <sheet name="%5 of noise" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>GE</t>
-  </si>
-  <si>
-    <t>HARF</t>
   </si>
   <si>
     <t>IPF</t>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>IRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNDC </t>
+  </si>
+  <si>
+    <t>FMF</t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t>HRRF</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03CF1A-F7B8-ED4C-8243-C53D47356A15}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -540,12 +549,12 @@
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -563,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -575,18 +584,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1091</v>
@@ -627,10 +642,16 @@
       <c r="N2" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.27579999999999999</v>
@@ -671,10 +692,16 @@
       <c r="N3" s="4">
         <v>0.26290000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26129999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.10009999999999999</v>
@@ -715,10 +742,16 @@
       <c r="N4" s="4">
         <v>6.8099999999999994E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>7.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.14219999999999999</v>
@@ -759,10 +792,16 @@
       <c r="N5" s="4">
         <v>0.13170000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.1177</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.12180000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.11509999999999999</v>
@@ -803,10 +842,16 @@
       <c r="N6" s="4">
         <v>4.87E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1014</v>
@@ -847,10 +892,16 @@
       <c r="N7" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>7.3400000000000007E-2</v>
@@ -891,10 +942,16 @@
       <c r="N8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>8.2100000000000006E-2</v>
@@ -935,10 +992,16 @@
       <c r="N9" s="4">
         <v>5.33E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.10879999999999999</v>
@@ -979,10 +1042,16 @@
       <c r="N10" s="4">
         <v>4.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>9.6500000000000002E-2</v>
@@ -1023,10 +1092,16 @@
       <c r="N11" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.1188</v>
@@ -1067,10 +1142,16 @@
       <c r="N12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.12139999999999999</v>
@@ -1111,10 +1192,16 @@
       <c r="N13" s="4">
         <v>5.7700000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.74E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.13239999999999999</v>
@@ -1155,10 +1242,16 @@
       <c r="N14" s="4">
         <v>8.0799999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>8.5199999999999998E-2</v>
@@ -1199,10 +1292,16 @@
       <c r="N15" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.17849999999999999</v>
@@ -1243,10 +1342,16 @@
       <c r="N16" s="4">
         <v>0.1585</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.158</v>
@@ -1287,10 +1392,16 @@
       <c r="N17" s="4">
         <v>0.14749999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.14829999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>9.2499999999999999E-2</v>
@@ -1331,10 +1442,16 @@
       <c r="N18" s="4">
         <v>3.2800000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>3.32E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>9.5000000000000001E-2</v>
@@ -1375,10 +1492,16 @@
       <c r="N19" s="4">
         <v>1.49E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>8.6099999999999996E-2</v>
@@ -1419,10 +1542,16 @@
       <c r="N20" s="4">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>2.41E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>8.6699999999999999E-2</v>
@@ -1462,6 +1591,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.98E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1474,21 +1609,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1506,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1518,18 +1655,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1313</v>
@@ -1570,10 +1713,16 @@
       <c r="N2" s="4">
         <v>7.8799999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.29670000000000002</v>
@@ -1614,10 +1763,16 @@
       <c r="N3" s="4">
         <v>0.26219999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26019999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.16020000000000001</v>
@@ -1658,10 +1813,16 @@
       <c r="N4" s="4">
         <v>8.0100000000000005E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.161</v>
@@ -1702,10 +1863,16 @@
       <c r="N5" s="4">
         <v>0.1321</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.1178</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.15670000000000001</v>
@@ -1746,10 +1913,16 @@
       <c r="N6" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1489</v>
@@ -1790,10 +1963,16 @@
       <c r="N7" s="4">
         <v>8.72E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>9.6199999999999994E-2</v>
@@ -1834,10 +2013,16 @@
       <c r="N8" s="4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1084</v>
@@ -1878,10 +2063,16 @@
       <c r="N9" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.15260000000000001</v>
@@ -1922,10 +2113,16 @@
       <c r="N10" s="4">
         <v>4.19E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1159</v>
@@ -1966,10 +2163,16 @@
       <c r="N11" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.17610000000000001</v>
@@ -2010,10 +2213,16 @@
       <c r="N12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.7800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.15540000000000001</v>
@@ -2054,10 +2263,16 @@
       <c r="N13" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.1719</v>
@@ -2098,10 +2313,16 @@
       <c r="N14" s="4">
         <v>8.09E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.7700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.13350000000000001</v>
@@ -2142,10 +2363,16 @@
       <c r="N15" s="4">
         <v>1.37E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.2092</v>
@@ -2186,10 +2413,16 @@
       <c r="N16" s="4">
         <v>0.1585</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.1434</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.1694</v>
@@ -2230,10 +2463,16 @@
       <c r="N17" s="4">
         <v>0.14810000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.14910000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.13300000000000001</v>
@@ -2274,10 +2513,16 @@
       <c r="N18" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.14019999999999999</v>
@@ -2318,10 +2563,16 @@
       <c r="N19" s="4">
         <v>1.54E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1207</v>
@@ -2362,10 +2613,16 @@
       <c r="N20" s="4">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1183</v>
@@ -2405,6 +2662,12 @@
       </c>
       <c r="N21" s="4">
         <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.0099999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2417,21 +2680,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2449,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2461,18 +2726,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.15010000000000001</v>
@@ -2513,10 +2784,16 @@
       <c r="N2" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.7700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.31419999999999998</v>
@@ -2557,10 +2834,16 @@
       <c r="N3" s="4">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26069999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.15640000000000001</v>
@@ -2601,10 +2884,16 @@
       <c r="N4" s="4">
         <v>6.9800000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8.1699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.1802</v>
@@ -2645,10 +2934,16 @@
       <c r="N5" s="4">
         <v>0.13619999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.1181</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.18909999999999999</v>
@@ -2689,10 +2984,16 @@
       <c r="N6" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1646</v>
@@ -2733,10 +3034,16 @@
       <c r="N7" s="4">
         <v>9.2700000000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.1201</v>
@@ -2777,10 +3084,16 @@
       <c r="N8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1236</v>
@@ -2821,10 +3134,16 @@
       <c r="N9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.182</v>
@@ -2865,10 +3184,16 @@
       <c r="N10" s="4">
         <v>4.2500000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.13439999999999999</v>
@@ -2909,10 +3234,16 @@
       <c r="N11" s="4">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.2300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.21129999999999999</v>
@@ -2953,10 +3284,16 @@
       <c r="N12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.19170000000000001</v>
@@ -2997,10 +3334,16 @@
       <c r="N13" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.20530000000000001</v>
@@ -3041,10 +3384,16 @@
       <c r="N14" s="4">
         <v>8.09E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.16209999999999999</v>
@@ -3085,10 +3434,16 @@
       <c r="N15" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.23760000000000001</v>
@@ -3129,10 +3484,16 @@
       <c r="N16" s="4">
         <v>0.15809999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.1452</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.1812</v>
@@ -3173,10 +3534,16 @@
       <c r="N17" s="4">
         <v>0.14810000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.14910000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.161</v>
@@ -3217,10 +3584,16 @@
       <c r="N18" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.17330000000000001</v>
@@ -3261,10 +3634,16 @@
       <c r="N19" s="4">
         <v>1.54E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1444</v>
@@ -3305,10 +3684,16 @@
       <c r="N20" s="4">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.14030000000000001</v>
@@ -3348,6 +3733,12 @@
       </c>
       <c r="N21" s="4">
         <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.1899999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3360,21 +3751,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3392,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3404,18 +3797,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.16819999999999999</v>
@@ -3456,10 +3855,16 @@
       <c r="N2" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.6238932999999995E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.8039725000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.33239999999999997</v>
@@ -3500,10 +3905,16 @@
       <c r="N3" s="4">
         <v>0.26190000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25065100200000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.25986452700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.22739999999999999</v>
@@ -3544,10 +3955,16 @@
       <c r="N4" s="4">
         <v>8.6199999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>8.0843963000000005E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.10045969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.1948</v>
@@ -3588,10 +4005,16 @@
       <c r="N5" s="4">
         <v>0.1381</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.118465696</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.123224369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2177</v>
@@ -3632,10 +4055,16 @@
       <c r="N6" s="4">
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>5.2940688999999999E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.3790007000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.17499999999999999</v>
@@ -3676,10 +4105,16 @@
       <c r="N7" s="4">
         <v>9.5699999999999993E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>9.0086113999999995E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9.5956033999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.13750000000000001</v>
@@ -3720,10 +4155,16 @@
       <c r="N8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.0210811999999999E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9901673999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1394</v>
@@ -3764,10 +4205,16 @@
       <c r="N9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.4165444E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3778032000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.20949999999999999</v>
@@ -3808,10 +4255,16 @@
       <c r="N10" s="4">
         <v>4.3200000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>3.6810148000000001E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.8518718E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.15110000000000001</v>
@@ -3852,10 +4305,16 @@
       <c r="N11" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.0424314000000002E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.2533845999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.25409999999999999</v>
@@ -3896,10 +4355,16 @@
       <c r="N12" s="4">
         <v>4.7600000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.8315644999999997E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.7885166E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.20949999999999999</v>
@@ -3940,10 +4405,16 @@
       <c r="N13" s="4">
         <v>5.6099999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.6300436000000002E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.7750621000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.2311</v>
@@ -3984,10 +4455,16 @@
       <c r="N14" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.163245E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.7317696000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.1799</v>
@@ -4028,10 +4505,16 @@
       <c r="N15" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>2.1439690000000001E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.5790193000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.26200000000000001</v>
@@ -4072,10 +4555,16 @@
       <c r="N16" s="4">
         <v>0.1575</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.146720821</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.14803854599999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.19159999999999999</v>
@@ -4116,10 +4605,16 @@
       <c r="N17" s="4">
         <v>0.14860000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.14952458699999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.150185981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.17119999999999999</v>
@@ -4160,10 +4655,16 @@
       <c r="N18" s="4">
         <v>3.78E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>3.6313156999999999E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.4840241000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.19089999999999999</v>
@@ -4204,10 +4705,16 @@
       <c r="N19" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>2.15512E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.6209635999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.15329999999999999</v>
@@ -4248,10 +4755,16 @@
       <c r="N20" s="4">
         <v>2.81E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>2.7908158999999998E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.5763689999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.15820000000000001</v>
@@ -4291,6 +4804,12 @@
       </c>
       <c r="N21" s="4">
         <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.7852350999999999E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.3594433E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4303,21 +4822,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4335,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -4347,18 +4868,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.18709999999999999</v>
@@ -4399,10 +4926,16 @@
       <c r="N2" s="4">
         <v>7.9699999999999993E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.6008148999999997E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.7481894999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.34960000000000002</v>
@@ -4443,10 +4976,16 @@
       <c r="N3" s="4">
         <v>0.25879999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.248683299</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.25830476000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.23280000000000001</v>
@@ -4487,10 +5026,16 @@
       <c r="N4" s="4">
         <v>7.3899999999999993E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.9278449000000006E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8.3305241000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.2097</v>
@@ -4531,10 +5076,16 @@
       <c r="N5" s="4">
         <v>0.14019999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.118801058</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.12369203400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2394</v>
@@ -4575,10 +5126,16 @@
       <c r="N6" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>5.6537248999999998E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.4940810999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1933</v>
@@ -4619,10 +5176,16 @@
       <c r="N7" s="4">
         <v>0.1002</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>9.4095540000000005E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.100469847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.15079999999999999</v>
@@ -4663,10 +5226,16 @@
       <c r="N8" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.0975194999999999E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.0525616E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.15540000000000001</v>
@@ -4707,10 +5276,16 @@
       <c r="N9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.4426273999999997E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.3970719E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.23400000000000001</v>
@@ -4751,10 +5326,16 @@
       <c r="N10" s="4">
         <v>4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>3.7805333000000003E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.8636140999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1643</v>
@@ -4795,10 +5376,16 @@
       <c r="N11" s="4">
         <v>8.2100000000000006E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.1057735999999996E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.3377488000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.28720000000000001</v>
@@ -4839,10 +5426,16 @@
       <c r="N12" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.8930168000000003E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.8119950000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.23630000000000001</v>
@@ -4883,10 +5476,16 @@
       <c r="N13" s="4">
         <v>5.62E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.8160986999999997E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.7490318999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.25430000000000003</v>
@@ -4927,10 +5526,16 @@
       <c r="N14" s="4">
         <v>8.0699999999999994E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.2403039000000002E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.7215134000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.20280000000000001</v>
@@ -4971,10 +5576,16 @@
       <c r="N15" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>2.2848103000000002E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.6730368999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.28110000000000002</v>
@@ -5015,10 +5626,16 @@
       <c r="N16" s="4">
         <v>0.15859999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.14941532799999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.15005728600000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.2006</v>
@@ -5059,10 +5676,16 @@
       <c r="N17" s="4">
         <v>0.14960000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.150502778</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.151493246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.184</v>
@@ -5103,10 +5726,16 @@
       <c r="N18" s="4">
         <v>4.0800000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>3.8485975999999998E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.5912624999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.20319999999999999</v>
@@ -5147,10 +5776,16 @@
       <c r="N19" s="4">
         <v>1.67E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>2.267069E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.7342967000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.17780000000000001</v>
@@ -5191,10 +5826,16 @@
       <c r="N20" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>3.0089142999999999E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.6919333E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.18290000000000001</v>
@@ -5234,6 +5875,12 @@
       </c>
       <c r="N21" s="4">
         <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.8172880999999999E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.2895147E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5246,21 +5893,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5278,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5290,18 +5939,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.20269999999999999</v>
@@ -5342,10 +5997,16 @@
       <c r="N2" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>7.6462543999999993E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7.7929797999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.35809999999999997</v>
@@ -5386,10 +6047,16 @@
       <c r="N3" s="4">
         <v>0.25729999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.24628544499999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26192764200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.24199999999999999</v>
@@ -5430,10 +6097,16 @@
       <c r="N4" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>8.4178037999999997E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>9.8432751999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.2213</v>
@@ -5474,10 +6147,16 @@
       <c r="N5" s="4">
         <v>0.1406</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.119558214</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.12374318099999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.26190000000000002</v>
@@ -5518,10 +6197,16 @@
       <c r="N6" s="4">
         <v>5.21E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>5.9591524E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.8413698E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.18990000000000001</v>
@@ -5562,10 +6247,16 @@
       <c r="N7" s="4">
         <v>9.7600000000000006E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>9.3088990999999996E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9.7393129999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.16309999999999999</v>
@@ -5606,10 +6297,16 @@
       <c r="N8" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.1273688000000003E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.0369848999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.16819999999999999</v>
@@ -5650,10 +6347,16 @@
       <c r="N9" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>5.4782218000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.4009076000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.25330000000000003</v>
@@ -5694,10 +6397,16 @@
       <c r="N10" s="4">
         <v>4.48E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>4.0136719000000001E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3.9432805000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1767</v>
@@ -5738,10 +6447,16 @@
       <c r="N11" s="4">
         <v>8.3199999999999996E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.1274462999999996E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.4484799000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.30330000000000001</v>
@@ -5782,10 +6497,16 @@
       <c r="N12" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>5.3028103E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.9484980999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2636</v>
@@ -5826,10 +6547,16 @@
       <c r="N13" s="4">
         <v>5.5599999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.9217896999999999E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.7223149000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.27189999999999998</v>
@@ -5870,10 +6597,16 @@
       <c r="N14" s="4">
         <v>8.0600000000000005E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>7.3506546000000006E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7.6705735999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.21290000000000001</v>
@@ -5914,10 +6647,16 @@
       <c r="N15" s="4">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>2.4503337E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1.6345690999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.2969</v>
@@ -5958,10 +6697,16 @@
       <c r="N16" s="4">
         <v>0.20369999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.15284009000000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.15310267399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.20979999999999999</v>
@@ -6002,10 +6747,16 @@
       <c r="N17" s="4">
         <v>0.14979999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.15086652</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.15246062299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.19109999999999999</v>
@@ -6046,10 +6797,16 @@
       <c r="N18" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>4.1823569999999997E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.8300183000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.21970000000000001</v>
@@ -6090,10 +6847,16 @@
       <c r="N19" s="4">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>2.4261284000000001E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.7521874E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1898</v>
@@ -6134,10 +6897,16 @@
       <c r="N20" s="4">
         <v>3.15E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>3.2811050000000001E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.7812680999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.19950000000000001</v>
@@ -6177,6 +6946,12 @@
       </c>
       <c r="N21" s="4">
         <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>3.9976567999999997E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3.4356870999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RMSE_SVM_git.xlsx
+++ b/docs/RMSE_SVM_git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Documents/Git_repositorios/regressandnoise/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245A837-8CAD-4F49-B687-72A1C30C552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859AB8EA-24D3-4D43-8509-225838468A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4080" yWindow="-17600" windowWidth="34540" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="30% of noise" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -546,7 +546,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -563,40 +563,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -613,40 +613,40 @@
         <v>0.08</v>
       </c>
       <c r="E2" s="4">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.7600000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -663,40 +663,40 @@
         <v>0.25390000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.313</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26169999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.25540000000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30030000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2611</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26090000000000002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.26079999999999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.254</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26240000000000002</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26290000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25390000000000001</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26129999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -713,40 +713,40 @@
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>7.4800000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -763,40 +763,40 @@
         <v>0.12559999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1177</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1192</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1215</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.121</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.12740000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.1206</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.12130000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1187</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.13519999999999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.13170000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1177</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.12180000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -813,40 +813,40 @@
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4.8500000000000001E-2</v>
       </c>
       <c r="J6" s="4">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="K6" s="4">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="L6" s="4">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="M6" s="4">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>4.87E-2</v>
       </c>
       <c r="O6" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="P6" s="4">
-        <v>4.8899999999999999E-2</v>
+        <v>4.87E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -863,40 +863,40 @@
         <v>9.9099999999999994E-2</v>
       </c>
       <c r="E7" s="4">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>8.3599999999999994E-2</v>
       </c>
       <c r="H7" s="4">
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="I7" s="4">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J7" s="4">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="N7" s="4">
         <v>8.48E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>9.69E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>8.5599999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -913,40 +913,40 @@
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3.9800000000000002E-2</v>
       </c>
       <c r="K8" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="L8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -963,37 +963,37 @@
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.33E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.33E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3199999999999997E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="L9" s="4">
-        <v>5.3600000000000002E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="M9" s="4">
         <v>5.33E-2</v>
       </c>
       <c r="N9" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="O9" s="4">
         <v>5.33E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.3199999999999997E-2</v>
       </c>
       <c r="P9" s="4">
         <v>5.33E-2</v>
@@ -1013,40 +1013,40 @@
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.6900000000000002E-2</v>
       </c>
       <c r="K10" s="4">
         <v>3.6900000000000002E-2</v>
       </c>
       <c r="L10" s="4">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.07E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.7699999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1063,40 +1063,40 @@
         <v>7.1099999999999997E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1113,37 +1113,37 @@
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>4.8800000000000003E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="M12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="N12" s="4">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="O12" s="4">
         <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.7800000000000002E-2</v>
       </c>
       <c r="P12" s="4">
         <v>4.7899999999999998E-2</v>
@@ -1163,40 +1163,40 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.74E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.74E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.8500000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1213,40 +1213,40 @@
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.8299999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1263,40 +1263,40 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.38E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>1.46E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.4E-2</v>
       </c>
       <c r="J15" s="4">
         <v>1.4E-2</v>
       </c>
       <c r="K15" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L15" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.41E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>1.49E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.41E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1313,40 +1313,40 @@
         <v>0.16120000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.15770000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.14349999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.1431</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.15579999999999999</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.14349999999999999</v>
       </c>
       <c r="K16" s="4">
         <v>0.14349999999999999</v>
       </c>
       <c r="L16" s="4">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.14549999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.1588</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1585</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.14419999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1363,40 +1363,40 @@
         <v>0.1545</v>
       </c>
       <c r="E17" s="4">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.153</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.14860000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.155</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.1472</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.14699999999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.14729999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.14960000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.1472</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14749999999999999</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.14760000000000001</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.14829999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1413,40 +1413,40 @@
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>3.32E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>3.32E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.27E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>3.32E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1463,19 +1463,19 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.49E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>2.93E-2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.49E-2</v>
       </c>
       <c r="J19" s="4">
         <v>1.49E-2</v>
@@ -1484,16 +1484,16 @@
         <v>1.49E-2</v>
       </c>
       <c r="L19" s="4">
+        <v>1.49E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.49E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>1.61E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.49E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1.5900000000000001E-2</v>
       </c>
       <c r="P19" s="4">
         <v>1.49E-2</v>
@@ -1513,40 +1513,40 @@
         <v>2.86E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>2.41E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2.41E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>2.58E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.41E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.3599999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1563,44 +1563,44 @@
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F21" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.04E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2.9600000000000001E-2</v>
       </c>
       <c r="K21" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="L21" s="4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2.98E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2.98E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,13 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1634,40 +1632,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1684,40 +1682,40 @@
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1734,40 +1732,40 @@
         <v>0.25309999999999999</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.2616</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.2545</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.26069999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26050000000000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25979999999999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.25340000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26219999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26219999999999999</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25309999999999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26019999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1784,40 +1782,40 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.1133</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8.9700000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1834,40 +1832,40 @@
         <v>0.12520000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1178</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1195</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1216</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.11840000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.1212</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.12859999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.1207</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.12130000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.122</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1321</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1178</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.122</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1884,40 +1882,40 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1934,40 +1932,40 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E7" s="4">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="O7" s="4">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>8.72E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>8.9700000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1984,40 +1982,40 @@
         <v>4.07E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.04</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.36E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3.9899999999999998E-2</v>
       </c>
       <c r="K8" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="L8" s="4">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.02E-2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.04</v>
       </c>
       <c r="O8" s="4">
         <v>0.04</v>
       </c>
       <c r="P8" s="4">
-        <v>3.9899999999999998E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2034,40 +2032,40 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5.3499999999999999E-2</v>
       </c>
       <c r="G9" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="H9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="I9" s="4">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.33E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.33E-2</v>
       </c>
       <c r="L9" s="4">
-        <v>5.3900000000000003E-2</v>
+        <v>5.33E-2</v>
       </c>
       <c r="M9" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="N9" s="4">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="O9" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="P9" s="4">
-        <v>5.3400000000000003E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2084,40 +2082,40 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.19E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.78E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2134,40 +2132,40 @@
         <v>7.1099999999999997E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2184,34 +2182,34 @@
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>4.9700000000000001E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="M12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="N12" s="4">
-        <v>4.7800000000000002E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="O12" s="4">
         <v>4.7800000000000002E-2</v>
@@ -2234,40 +2232,40 @@
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>6.08E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2284,40 +2282,40 @@
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.09E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.7700000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2334,40 +2332,40 @@
         <v>1.54E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.37E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.38E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.37E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.38E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.37E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.38E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2384,40 +2382,40 @@
         <v>0.15939999999999999</v>
       </c>
       <c r="E16" s="4">
+        <v>0.1434</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.159</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.14499999999999999</v>
       </c>
       <c r="G16" s="4">
         <v>0.14499999999999999</v>
       </c>
       <c r="H16" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.159</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1537</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1452</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.14430000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.1454</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1474</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1585</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.1434</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.1454</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2434,40 +2432,40 @@
         <v>0.15429999999999999</v>
       </c>
       <c r="E17" s="4">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.1535</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.151</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.1492</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.1477</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15060000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.1479</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14810000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.14829999999999999</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.14910000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -2484,40 +2482,40 @@
         <v>3.32E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3.3799999999999997E-2</v>
       </c>
       <c r="G18" s="4">
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="H18" s="4">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="I18" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K18" s="4">
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="L18" s="4">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.3099999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2534,37 +2532,37 @@
         <v>1.83E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>2.69E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.55E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.55E-2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1.5299999999999999E-2</v>
       </c>
       <c r="K19" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="L19" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.54E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.54E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1.7299999999999999E-2</v>
       </c>
       <c r="P19" s="4">
         <v>1.54E-2</v>
@@ -2584,40 +2582,40 @@
         <v>2.87E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2.53E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="J20" s="4">
-        <v>2.35E-2</v>
       </c>
       <c r="K20" s="4">
         <v>2.35E-2</v>
       </c>
       <c r="L20" s="4">
+        <v>2.35E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.46E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2634,44 +2632,44 @@
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.0099999999999998E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,13 +2680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2705,40 +2701,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2755,40 +2751,40 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.7700000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2805,40 +2801,40 @@
         <v>0.2525</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.3599</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26979999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.25390000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.3599</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2606</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.25979999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25869999999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.25209999999999999</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26169999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26200000000000001</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25240000000000001</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26069999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2855,40 +2851,40 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>8.77E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.105</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8.1699999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2905,40 +2901,40 @@
         <v>0.12540000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1181</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.11990000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1222</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1187</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.1221</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.13009999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.12130000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.122</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.123</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1192</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1343</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.13619999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1181</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.123</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2955,40 +2951,40 @@
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.05</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.05</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3005,40 +3001,40 @@
         <v>0.1046</v>
       </c>
       <c r="E7" s="4">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="N7" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.10009999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3055,40 +3051,40 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4.0099999999999997E-2</v>
       </c>
       <c r="G8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="H8" s="4">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="I8" s="4">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3105,40 +3101,40 @@
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3400000000000003E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="L9" s="4">
-        <v>5.4199999999999998E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="M9" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="N9" s="4">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="P9" s="4">
         <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3499999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3155,40 +3151,40 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.8100000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3205,40 +3201,40 @@
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>0.08</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.2300000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3255,40 +3251,40 @@
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>5.2699999999999997E-2</v>
       </c>
       <c r="M12" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="N12" s="4">
-        <v>4.7800000000000002E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="O12" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="P12" s="4">
-        <v>4.7699999999999999E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3305,40 +3301,40 @@
         <v>5.96E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.91E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.91E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3355,40 +3351,40 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.09E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.7600000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3405,40 +3401,40 @@
         <v>1.95E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.47E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.37E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.43E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2.0400000000000001E-2</v>
       </c>
       <c r="M15" s="4">
         <v>1.37E-2</v>
       </c>
       <c r="N15" s="4">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1.37E-2</v>
+      </c>
+      <c r="P15" s="4">
         <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.37E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3455,40 +3451,40 @@
         <v>0.15870000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.1452</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.16259999999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.14549999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.14760000000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.16259999999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1535</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.14630000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.1454</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.15060000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.15809999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.1452</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3505,40 +3501,40 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15429999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.1502</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.1479</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.14760000000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.14779999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.1479</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14810000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.14910000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -3555,40 +3551,40 @@
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.5200000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -3605,40 +3601,40 @@
         <v>1.9099999999999999E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.55E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.55E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.54E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -3655,40 +3651,40 @@
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.53E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.76E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.53E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -3705,44 +3701,44 @@
         <v>3.6400000000000002E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>3.78E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.1899999999999998E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,13 +3749,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3776,40 +3770,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3826,40 +3820,40 @@
         <v>7.9799999999999996E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>7.6238932999999995E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.8039725000000004E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.6238932999999995E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.8039725000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3876,40 +3870,40 @@
         <v>0.25069999999999998</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25065100200000001</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.31059999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26269999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.252</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.31059999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2601</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26050000000000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25769999999999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25986452700000001</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.25069999999999998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.2611</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26190000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25065100200000001</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.25986452700000001</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3926,40 +3920,40 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>8.0843963000000005E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.10249999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.10539999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.10045969</v>
+      </c>
+      <c r="N4" s="4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.11210000000000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>8.0843963000000005E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.10045969</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3976,40 +3970,40 @@
         <v>0.12520000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.118465696</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1206</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1225</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1191</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.1225</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.13439999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.12139999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1222</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.123224369</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.11990000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.13450000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1381</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.118465696</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.123224369</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4026,40 +4020,40 @@
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>5.2940688999999999E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.3790007000000001E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.2940688999999999E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.3790007000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4076,40 +4070,40 @@
         <v>0.1038</v>
       </c>
       <c r="E7" s="4">
+        <v>9.0086113999999995E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>9.5956033999999996E-2</v>
+      </c>
+      <c r="N7" s="4">
         <v>9.64E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>9.0086113999999995E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>9.5956033999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4126,40 +4120,40 @@
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.0210811999999999E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.36E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.04</v>
       </c>
       <c r="K8" s="4">
         <v>0.04</v>
       </c>
       <c r="L8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.9901673999999998E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.0210811999999999E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9901673999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4176,40 +4170,40 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.4165444E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.3699999999999998E-2</v>
       </c>
       <c r="K9" s="4">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="L9" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5.3778032000000003E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.4165444E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3778032000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4226,40 +4220,40 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>3.6810148000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3.85E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.73E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>3.8518718E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3.6810148000000001E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.8518718E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4276,40 +4270,40 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.0424314000000002E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.2533845999999999E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>0.08</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.0424314000000002E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.2533845999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4326,40 +4320,40 @@
         <v>5.2699999999999997E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.8315644999999997E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>4.7885166E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.8315644999999997E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.7885166E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4376,40 +4370,40 @@
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.6300436000000002E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>7.51E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.57E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.7750621000000002E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.6099999999999997E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.6300436000000002E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.7750621000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4426,40 +4420,40 @@
         <v>7.8E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.163245E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.7317696000000005E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.163245E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.7317696000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4476,40 +4470,40 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>2.1439690000000001E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.5790193000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2.1439690000000001E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.5790193000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4526,40 +4520,40 @@
         <v>0.15820000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.146720821</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.1661</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.1472</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.15010000000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.1661</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1532</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.14810000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.14630000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.14803854599999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.15440000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.15770000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1575</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.146720821</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.14803854599999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4576,40 +4570,40 @@
         <v>0.15570000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.14952458699999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15229999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15179999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.15709999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.1487</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.14860000000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.14940000000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.150185981</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.1527</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14860000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.14952458699999999</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.150185981</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4626,40 +4620,40 @@
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>3.6313156999999999E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3.6499999999999998E-2</v>
       </c>
       <c r="G18" s="4">
         <v>3.6499999999999998E-2</v>
       </c>
       <c r="H18" s="4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="I18" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.4840241000000001E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>3.73E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.78E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>3.6313156999999999E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.4840241000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4676,40 +4670,40 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>2.15512E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.39E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.66E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.6209635999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2.15512E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.6209635999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4726,40 +4720,40 @@
         <v>3.1E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>2.7908158999999998E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.53E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.5763689999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.63E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.81E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>2.7908158999999998E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.5763689999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4776,44 +4770,44 @@
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.7852350999999999E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>3.39E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>3.3594433E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>3.7852350999999999E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.3594433E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,13 +4818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -4847,40 +4839,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4897,40 +4889,40 @@
         <v>7.9200000000000007E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>7.6008148999999997E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.7481894999999995E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.6008148999999997E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.7481894999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4947,40 +4939,40 @@
         <v>0.24840000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.248683299</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.29970000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26910000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.24909999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.29970000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.25890000000000002</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.25819999999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.26050000000000001</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25830476000000002</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.29320000000000002</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.2492</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25879999999999997</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.248683299</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.25830476000000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4997,40 +4989,40 @@
         <v>7.8399999999999997E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.9278449000000006E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>9.69E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>8.3305241000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.1138</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>7.3899999999999993E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.9278449000000006E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8.3305241000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -5047,40 +5039,40 @@
         <v>0.1255</v>
       </c>
       <c r="E5" s="4">
+        <v>0.118801058</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.12189999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1225</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1195</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.12429999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1363</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.12180000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.12230000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.12369203400000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.12039999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1358</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.14019999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.118801058</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.12369203400000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5097,40 +5089,40 @@
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>5.6537248999999998E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.48E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.4940810999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.6537248999999998E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.4940810999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -5147,40 +5139,40 @@
         <v>0.1086</v>
       </c>
       <c r="E7" s="4">
+        <v>9.4095540000000005E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.1055</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1022</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.1055</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>9.74E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.100469847</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.106</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.10589999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1002</v>
-      </c>
-      <c r="O7" s="4">
-        <v>9.4095540000000005E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.100469847</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -5197,40 +5189,40 @@
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.0975194999999999E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.07E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.0525616E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.0975194999999999E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.0525616E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5247,40 +5239,40 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.4426273999999997E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.3970719E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.4426273999999997E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.3970719E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -5297,40 +5289,40 @@
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>3.7805333000000003E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>4.02E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>3.8636140999999999E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3.7805333000000003E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.8636140999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5347,40 +5339,40 @@
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.1057735999999996E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.08</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.3377488000000005E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.1057735999999996E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.3377488000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5397,40 +5389,40 @@
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.8930168000000003E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>4.8119950000000002E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.8930168000000003E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.8119950000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5447,40 +5439,40 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.8160986999999997E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K13" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="L13" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5.7490318999999998E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.62E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.8160986999999997E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.7490318999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5497,40 +5489,40 @@
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.2403039000000002E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.46E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.7215134000000005E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.2403039000000002E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.7215134000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -5547,40 +5539,40 @@
         <v>2.63E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>2.2848103000000002E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2.47E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.6730368999999998E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>2.53E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2.2848103000000002E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.6730368999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -5597,40 +5589,40 @@
         <v>0.158</v>
       </c>
       <c r="E16" s="4">
+        <v>0.14941532799999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.17050000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.15</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.15440000000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.17050000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.14990000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.14810000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.15005728600000001</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1588</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.15809999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.15859999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.14941532799999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.15005728600000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5647,40 +5639,40 @@
         <v>0.15659999999999999</v>
       </c>
       <c r="E17" s="4">
+        <v>0.150502778</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.15359999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.158</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.1497</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.14990000000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.15010000000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.151493246</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.1545</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.1492</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14960000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.150502778</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.151493246</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -5697,40 +5689,40 @@
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>3.8485975999999998E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.5912624999999997E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>3.8485975999999998E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.5912624999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5747,40 +5739,40 @@
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>2.267069E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.77E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.7342967000000001E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.67E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2.267069E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.7342967000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5797,40 +5789,40 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>3.0089142999999999E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>5.11E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.6919333E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>3.0089142999999999E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.6919333E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5847,44 +5839,44 @@
         <v>3.95E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.8172880999999999E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>5.33E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>3.78E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>3.2599999999999997E-2</v>
       </c>
       <c r="K21" s="4">
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="L21" s="4">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3.2895147E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>3.8172880999999999E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.2895147E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5895,13 +5887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -5918,40 +5908,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5968,40 +5958,40 @@
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>7.6462543999999993E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>7.7929797999999995E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>7.6462543999999993E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>7.7929797999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6018,40 +6008,40 @@
         <v>0.246</v>
       </c>
       <c r="E3" s="4">
+        <v>0.24628544499999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.33650000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.27139999999999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.24660000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.29970000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.25790000000000002</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.25729999999999997</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25650000000000001</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26192764200000002</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.33429999999999999</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.25509999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25729999999999997</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.24628544499999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26192764200000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6068,40 +6058,40 @@
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>8.4178037999999997E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.1069</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.1014</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>9.69E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>9.8432751999999998E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.10059999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>8.4178037999999997E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>9.8432751999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6118,40 +6108,40 @@
         <v>0.12540000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.119558214</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.12429999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.123</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1206</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.1275</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1381</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.122</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.123</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.12374318099999999</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.12189999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1406</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.119558214</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.12374318099999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6168,40 +6158,40 @@
         <v>6.93E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>5.9591524E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.8413698E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>5.21E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.9591524E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.8413698E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6218,40 +6208,40 @@
         <v>0.10630000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>9.3088990999999996E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.1024</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.1055</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>9.7393129999999994E-2</v>
+      </c>
+      <c r="N7" s="4">
         <v>9.98E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1055</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="O7" s="4">
-        <v>9.3088990999999996E-2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>9.7393129999999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6268,40 +6258,40 @@
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.1273688000000003E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>4.0399999999999998E-2</v>
       </c>
       <c r="K8" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="L8" s="4">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.0369848999999999E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.1273688000000003E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.0369848999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6318,40 +6308,40 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>5.4782218000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.4009076000000003E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5.4782218000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.4009076000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6368,40 +6358,40 @@
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>4.0136719000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.06</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>3.9432805000000001E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>4.48E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>4.0136719000000001E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3.9432805000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6418,40 +6408,40 @@
         <v>7.2599999999999998E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.1274462999999996E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.46E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.4484799000000004E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.1274462999999996E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.4484799000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6468,40 +6458,40 @@
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>5.3028103E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.1096</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.21E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>4.9484980999999997E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>9.01E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>5.3028103E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.9484980999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6518,40 +6508,40 @@
         <v>5.96E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.9217896999999999E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.57E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.7223149000000001E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.5599999999999997E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.9217896999999999E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.7223149000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6568,40 +6558,40 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>7.3506546000000006E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>7.6705735999999997E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>7.3506546000000006E-2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>7.6705735999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6618,40 +6608,40 @@
         <v>2.7E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>2.4503337E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>1.6345690999999999E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>1.84E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2.4503337E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1.6345690999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6668,40 +6658,40 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="E16" s="4">
+        <v>0.15284009000000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.1779</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.1535</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.1779</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1968</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.15140000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.15310267399999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1653</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.16039999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.20369999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.15284009000000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.15310267399999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6718,40 +6708,40 @@
         <v>0.158</v>
       </c>
       <c r="E17" s="4">
+        <v>0.15086652</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.15640000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.154</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.1578</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.14979999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.15029999999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.15060000000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.15246062299999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.14929999999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.14979999999999999</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.15086652</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.15246062299999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6768,40 +6758,40 @@
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>4.1823569999999997E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.8300183000000002E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>4.1823569999999997E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.8300183000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6818,40 +6808,40 @@
         <v>2.52E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>2.4261284000000001E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>1.89E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>1.7521874E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.78E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2.4261284000000001E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1.7521874E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -6868,40 +6858,40 @@
         <v>3.73E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>3.2811050000000001E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>5.11E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2.87E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2.75E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>2.7812680999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>3.15E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>3.2811050000000001E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2.7812680999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -6918,44 +6908,44 @@
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>3.9976567999999997E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>0.04</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>3.27E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>3.4356870999999997E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>3.9976567999999997E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>3.4356870999999997E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
